--- a/Orders/wwwroot/exports/Export.xlsx
+++ b/Orders/wwwroot/exports/Export.xlsx
@@ -46,7 +46,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>99.99</t>
+    <t>149.99</t>
   </si>
   <si>
     <t>https://img.icons8.com/dusk/20/000000/motherboard.png</t>

--- a/Orders/wwwroot/exports/Export.xlsx
+++ b/Orders/wwwroot/exports/Export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -34,250 +34,142 @@
     <t>Image</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>100254</t>
-  </si>
-  <si>
-    <t>Mother board NVidia 5.0 v2.0.01</t>
+    <t>1606759704</t>
+  </si>
+  <si>
+    <t>500145</t>
+  </si>
+  <si>
+    <t>Video Card GF 8GB</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>499.99</t>
+  </si>
+  <si>
+    <t>https://img.icons8.com/dusk/20/000000/audio-wave-2.png</t>
+  </si>
+  <si>
+    <t>1849429461</t>
+  </si>
+  <si>
+    <t>1153102</t>
+  </si>
+  <si>
+    <t>SSD 512GB Transendent</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>https://img.icons8.com/officel/20/000000/hdd.png</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>115310</t>
+  </si>
+  <si>
+    <t>SSD 1TB Western</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>556461824</t>
+  </si>
+  <si>
+    <t>205456</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>150234</t>
+  </si>
+  <si>
+    <t>Sound card</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>1040556123</t>
+  </si>
+  <si>
+    <t>305212</t>
+  </si>
+  <si>
+    <t>Processor Intel Core I7</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>https://img.icons8.com/nolan/20/processor.png</t>
+  </si>
+  <si>
+    <t>102458</t>
+  </si>
+  <si>
+    <t>Processor Intel Core I5</t>
+  </si>
+  <si>
+    <t>251.25</t>
+  </si>
+  <si>
+    <t>315655753</t>
+  </si>
+  <si>
+    <t>200583</t>
+  </si>
+  <si>
+    <t>Processor Intel Core I3</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>110254</t>
+  </si>
+  <si>
+    <t>Processor AMD Athlon</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>149.99</t>
-  </si>
-  <si>
-    <t>https://img.icons8.com/dusk/20/000000/motherboard.png</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>102458</t>
-  </si>
-  <si>
-    <t>Processor Intel Core I5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>251.25</t>
-  </si>
-  <si>
-    <t>https://img.icons8.com/nolan/20/processor.png</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>110254</t>
-  </si>
-  <si>
-    <t>Processor AMD Athlon</t>
-  </si>
-  <si>
     <t>199.99</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>150234</t>
-  </si>
-  <si>
-    <t>Sound card</t>
-  </si>
-  <si>
-    <t>4.99</t>
-  </si>
-  <si>
-    <t>https://img.icons8.com/dusk/20/000000/audio-wave-2.png</t>
-  </si>
-  <si>
-    <t>130579</t>
-  </si>
-  <si>
-    <t>DDR4 RAM 4GB Corsar</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>https://img.icons8.com/plasticine/20/000000/computer-ram.png</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>100005</t>
-  </si>
-  <si>
-    <t>DDR4R RAM 8GB Corsar</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>110258</t>
-  </si>
-  <si>
-    <t>HDD 1TB</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>https://img.icons8.com/officel/20/000000/hdd.png</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>115310</t>
-  </si>
-  <si>
-    <t>HDD 2TB</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>SSD 1TB Western</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>150379</t>
-  </si>
-  <si>
-    <t>Case ATX DELL</t>
-  </si>
-  <si>
-    <t>https://img.icons8.com/officel/20/000000/computer.png</t>
-  </si>
-  <si>
-    <t>315655753</t>
-  </si>
-  <si>
-    <t>200583</t>
-  </si>
-  <si>
-    <t>Processor Intel Core I3</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>325048927</t>
-  </si>
-  <si>
-    <t>158505</t>
-  </si>
-  <si>
-    <t>ATI Wonder 8gb OpenGL</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>556461824</t>
-  </si>
-  <si>
-    <t>205456</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>797543840</t>
-  </si>
-  <si>
-    <t>205864</t>
-  </si>
-  <si>
-    <t>Keyboard</t>
-  </si>
-  <si>
-    <t>871162792</t>
-  </si>
-  <si>
-    <t>305254</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>974288968</t>
-  </si>
-  <si>
-    <t>205425</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>1040556123</t>
-  </si>
-  <si>
-    <t>305212</t>
-  </si>
-  <si>
-    <t>Processor Intel Core I7</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>1062456750</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>Mother Board Quadroooo</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>1172540393</t>
-  </si>
-  <si>
-    <t>203458</t>
-  </si>
-  <si>
-    <t>Mother Board ATI socket 7</t>
-  </si>
-  <si>
-    <t>1420078509</t>
-  </si>
-  <si>
-    <t>125453</t>
-  </si>
-  <si>
-    <t>Power 2000</t>
-  </si>
-  <si>
-    <t>23.22</t>
+    <t>2003471671</t>
+  </si>
+  <si>
+    <t>105265</t>
+  </si>
+  <si>
+    <t>Power 500W</t>
+  </si>
+  <si>
+    <t>29.99</t>
   </si>
 </sst>
 </file>
@@ -625,7 +517,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -633,10 +525,10 @@
   <cols>
     <col min="1" max="1" width="11.574219" customWidth="1"/>
     <col min="2" max="2" width="12.003906" customWidth="1"/>
-    <col min="3" max="3" width="29.421875" customWidth="1"/>
+    <col min="3" max="3" width="21.851562" customWidth="1"/>
     <col min="4" max="4" width="8.28125" customWidth="1"/>
     <col min="5" max="5" width="6.5742188" customWidth="1"/>
-    <col min="6" max="6" width="58.140625" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -710,10 +602,10 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -721,42 +613,42 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -770,18 +662,18 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -790,58 +682,58 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -850,213 +742,13 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Orders/wwwroot/exports/Export.xlsx
+++ b/Orders/wwwroot/exports/Export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -34,142 +34,82 @@
     <t>Image</t>
   </si>
   <si>
-    <t>1606759704</t>
-  </si>
-  <si>
-    <t>500145</t>
-  </si>
-  <si>
-    <t>Video Card GF 8GB</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100254</t>
+  </si>
+  <si>
+    <t>Mother board NVidia 5.0 v2.5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>149.99</t>
+  </si>
+  <si>
+    <t>https://img.icons8.com/dusk/20/000000/motherboard.png</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>102458</t>
+  </si>
+  <si>
+    <t>Processor Intel Core I5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>251.25</t>
+  </si>
+  <si>
+    <t>https://img.icons8.com/nolan/20/processor.png</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>499.99</t>
+    <t>110254</t>
+  </si>
+  <si>
+    <t>Processor AMD Athlon</t>
+  </si>
+  <si>
+    <t>199.99</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>150234</t>
+  </si>
+  <si>
+    <t>Sound card</t>
+  </si>
+  <si>
+    <t>4.99</t>
   </si>
   <si>
     <t>https://img.icons8.com/dusk/20/000000/audio-wave-2.png</t>
   </si>
   <si>
-    <t>1849429461</t>
-  </si>
-  <si>
-    <t>1153102</t>
-  </si>
-  <si>
-    <t>SSD 512GB Transendent</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>https://img.icons8.com/officel/20/000000/hdd.png</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>115310</t>
-  </si>
-  <si>
-    <t>SSD 1TB Western</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>556461824</t>
-  </si>
-  <si>
-    <t>205456</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>150234</t>
-  </si>
-  <si>
-    <t>Sound card</t>
-  </si>
-  <si>
-    <t>4.99</t>
-  </si>
-  <si>
-    <t>1040556123</t>
-  </si>
-  <si>
-    <t>305212</t>
-  </si>
-  <si>
-    <t>Processor Intel Core I7</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>https://img.icons8.com/nolan/20/processor.png</t>
-  </si>
-  <si>
-    <t>102458</t>
-  </si>
-  <si>
-    <t>Processor Intel Core I5</t>
-  </si>
-  <si>
-    <t>251.25</t>
-  </si>
-  <si>
-    <t>315655753</t>
-  </si>
-  <si>
-    <t>200583</t>
-  </si>
-  <si>
-    <t>Processor Intel Core I3</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>110254</t>
-  </si>
-  <si>
-    <t>Processor AMD Athlon</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>199.99</t>
-  </si>
-  <si>
-    <t>2003471671</t>
-  </si>
-  <si>
-    <t>105265</t>
-  </si>
-  <si>
-    <t>Power 500W</t>
-  </si>
-  <si>
-    <t>29.99</t>
+    <t>130579</t>
+  </si>
+  <si>
+    <t>DDR4 RAM 4GB Corsar</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>https://img.icons8.com/plasticine/20/000000/computer-ram.png</t>
   </si>
 </sst>
 </file>
@@ -517,18 +457,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.574219" customWidth="1"/>
+    <col min="1" max="1" width="2.421875" customWidth="1"/>
     <col min="2" max="2" width="12.003906" customWidth="1"/>
-    <col min="3" max="3" width="21.851562" customWidth="1"/>
+    <col min="3" max="3" width="26.710938" customWidth="1"/>
     <col min="4" max="4" width="8.28125" customWidth="1"/>
     <col min="5" max="5" width="6.5742188" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" customWidth="1"/>
+    <col min="6" max="6" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -602,10 +542,10 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -613,142 +553,42 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
